--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -293,7 +293,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -343,10 +343,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.381120445394442"/>
-          <c:y val="0.199985518789371"/>
-          <c:w val="0.594720882835413"/>
-          <c:h val="0.771848526536818"/>
+          <c:x val="0.381083993066941"/>
+          <c:y val="0.199964046021093"/>
+          <c:w val="0.594697147140113"/>
+          <c:h val="0.771812080536913"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -675,11 +675,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="71493013"/>
-        <c:axId val="55964759"/>
+        <c:axId val="79716497"/>
+        <c:axId val="68770231"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71493013"/>
+        <c:axId val="79716497"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -715,14 +715,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55964759"/>
+        <c:crossAx val="68770231"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55964759"/>
+        <c:axId val="68770231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43623"/>
@@ -767,7 +767,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71493013"/>
+        <c:crossAx val="79716497"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -806,9 +806,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>710280</xdr:colOff>
+      <xdr:colOff>709920</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -816,8 +816,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6722280" y="941760"/>
-        <a:ext cx="7684920" cy="6007680"/>
+        <a:off x="6741360" y="941760"/>
+        <a:ext cx="7684560" cy="6007320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -838,12 +838,12 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L38" activeCellId="0" sqref="L38"/>
+      <selection pane="topLeft" activeCell="O26" activeCellId="0" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.3846153846154"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
